--- a/biology/Botanique/Jardin_botanique_de_Guyane/Jardin_botanique_de_Guyane.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Guyane/Jardin_botanique_de_Guyane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Guyane situé, en Guyane, dans l’axe de Cayenne et de Kourou dans la commune de Macouria est un jardin botanique qui s'étend sur trois hectares. Ses collections comprennent 4 500 taxons dont plus de 750 espèces d’orchidées.
@@ -512,7 +524,9 @@
           <t>Description et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été créé en octobre 2010. Il bénéficie d'un biotope composé de savane, de forêt haute et de forêt marécageuse.
 </t>
@@ -543,7 +557,9 @@
           <t>Collections de plantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Réparties au travers d’un parcours extérieur de plus d’un kilomètre de sentier linéaire, les collections de plantes sont, pour la plupart, accessibles aux visiteurs. Les quelques collections remarquables sont :
 Orchidacées
@@ -579,7 +595,9 @@
           <t>Recherche et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La conservation ex situ:
 L’action de conservation ex situ (hors du milieu naturel) par mise en culture au Jardin Botanique permet l’étude complète de spécimens dans des conditions, en Guyane (milieu équatorial amazonien), adéquates.
@@ -618,7 +636,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
